--- a/docs/Aggregator/Brokerage(Business Owner)-Aggregator List.xlsx
+++ b/docs/Aggregator/Brokerage(Business Owner)-Aggregator List.xlsx
@@ -8,25 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rufaruqui/GitRepos/pure_ruby/mgtool/docs/Aggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE3FFA4-78B4-BE49-B10B-AD5EBCD4FC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56939B7-E760-9143-B24E-3A8FFF3CA8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1100" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Broker_List" sheetId="1" r:id="rId1"/>
-    <sheet name="mysql-pg-mapping" sheetId="7" r:id="rId2"/>
-    <sheet name="Broker_List (Original)" sheetId="2" r:id="rId3"/>
-    <sheet name="Example - Sub-Group" sheetId="3" r:id="rId4"/>
-    <sheet name="mysql_data" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
-    <sheet name="abp-org-uesers" sheetId="8" r:id="rId7"/>
-    <sheet name="mysql-pg-abp-mappings" sheetId="9" r:id="rId8"/>
+    <sheet name="Broker_List_mapping_new" sheetId="10" r:id="rId1"/>
+    <sheet name="Broker_List" sheetId="1" r:id="rId2"/>
+    <sheet name="mysql-pg-mapping" sheetId="7" r:id="rId3"/>
+    <sheet name="Broker_List (Original)" sheetId="2" r:id="rId4"/>
+    <sheet name="Example - Sub-Group" sheetId="3" r:id="rId5"/>
+    <sheet name="mysql_data" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
+    <sheet name="abp-org-uesers" sheetId="8" r:id="rId8"/>
+    <sheet name="mysql-pg-abp-mappings" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5997914A-2486-BE44-B085-A2FB9DF9245A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>@prajakta@radial-solutions.com.au Please confirm book name with Sean. Please note that the book name must be unique for each Business Owner.
+_Assigned to Prajakta Bhamre_
+	-Annie Chan</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -50,7 +75,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -93,7 +118,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -137,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="605">
   <si>
     <t>Provider_Name</t>
   </si>
@@ -2195,6 +2220,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Broke_ID</t>
   </si>
 </sst>
 </file>
@@ -2714,12 +2742,6552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE8D9EB-E3C8-2048-AB21-258AF9353EC4}">
+  <dimension ref="A1:AH1030"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="115.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="76" customWidth="1"/>
+    <col min="21" max="34" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A2">
+        <f>LOOKUP(E2, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+    </row>
+    <row r="3" spans="1:34" ht="18.75" customHeight="1">
+      <c r="A3">
+        <f>LOOKUP(E3, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>45</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A4">
+        <f>LOOKUP(E4, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>45</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A5">
+        <f>LOOKUP(E5, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A6">
+        <f>LOOKUP(E6, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>23</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A7">
+        <f>LOOKUP(E7, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>26</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A8">
+        <f>LOOKUP(E8, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>26</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A9">
+        <f>LOOKUP(E9, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A10">
+        <f>LOOKUP(E10, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>41</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A11">
+        <f>LOOKUP(E11, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>80</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A12">
+        <f>LOOKUP(E12, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>72</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A13">
+        <f>LOOKUP(E13, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>74</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A14">
+        <f>LOOKUP(E14, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>71</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A15">
+        <f>LOOKUP(E15, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>71</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A16">
+        <f>LOOKUP(E16, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>71</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A17">
+        <f>LOOKUP(E17, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>75</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+    </row>
+    <row r="18" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A18">
+        <f>LOOKUP(E18, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>29</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A19">
+        <f>LOOKUP(E19, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>47</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A20">
+        <f>LOOKUP(E20, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>47</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A21">
+        <f>LOOKUP(E21, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>33</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A22">
+        <f>LOOKUP(E22, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>76</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A23">
+        <f>LOOKUP(E23, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>53</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+    </row>
+    <row r="24" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A24">
+        <f>LOOKUP(E24, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>48</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+    </row>
+    <row r="25" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A25">
+        <f>LOOKUP(E25, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>55</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A26">
+        <f>LOOKUP(E26, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>68</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A27">
+        <f>LOOKUP(E27, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A28">
+        <f>LOOKUP(E28, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>61</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A29">
+        <f>LOOKUP(E29, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>61</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A30">
+        <f>LOOKUP(E30, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>24</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A31">
+        <f>LOOKUP(E31, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>48</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A32">
+        <f>LOOKUP(E32, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>48</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A33">
+        <f>LOOKUP(E33, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>79</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+    </row>
+    <row r="34" spans="1:34" s="49" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34">
+        <f>LOOKUP(E34, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>63</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="O34" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+    </row>
+    <row r="35" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A35">
+        <f>LOOKUP(E35, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>62</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A36">
+        <f>LOOKUP(E36, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>62</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A37">
+        <f>LOOKUP(E37, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>27</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+    </row>
+    <row r="38" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A38">
+        <f>LOOKUP(E38, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>27</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+    </row>
+    <row r="39" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A39">
+        <f>LOOKUP(E39, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>65</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+    </row>
+    <row r="40" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A40">
+        <f>LOOKUP(E40, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>77</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+    </row>
+    <row r="41" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A41">
+        <f>LOOKUP(E41, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>56</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+    </row>
+    <row r="42" spans="1:34" s="49" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42">
+        <f>LOOKUP(E42, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>31</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+    </row>
+    <row r="43" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A43">
+        <f>LOOKUP(E43, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>13</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+    </row>
+    <row r="44" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A44">
+        <f>LOOKUP(E44, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>19</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+    </row>
+    <row r="45" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A45">
+        <f>LOOKUP(E45, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>6</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O45" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+    </row>
+    <row r="46" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A46">
+        <f>LOOKUP(E46, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>6</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="O46" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+    </row>
+    <row r="47" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A47">
+        <f>LOOKUP(E47, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+    </row>
+    <row r="48" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A48">
+        <f>LOOKUP(E48, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+    </row>
+    <row r="49" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A49">
+        <f>LOOKUP(E49, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+    </row>
+    <row r="50" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A50">
+        <f>LOOKUP(E50, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+    </row>
+    <row r="51" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A51">
+        <f>LOOKUP(E51, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+    </row>
+    <row r="52" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A52">
+        <f>LOOKUP(E52, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>14</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O52" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+    </row>
+    <row r="53" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A53">
+        <f>LOOKUP(E53, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+    </row>
+    <row r="54" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A54">
+        <f>LOOKUP(E54, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>16</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M54" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O54" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+    </row>
+    <row r="55" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A55">
+        <f>LOOKUP(E55, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>16</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+    </row>
+    <row r="56" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A56">
+        <f>LOOKUP(E56, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>70</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+    </row>
+    <row r="57" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A57">
+        <f>LOOKUP(E57, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>70</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+    </row>
+    <row r="58" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A58">
+        <f>LOOKUP(E58, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>30</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="M58" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="O58" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+    </row>
+    <row r="59" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A59">
+        <f>LOOKUP(E59, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>30</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="O59" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+    </row>
+    <row r="60" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A60">
+        <f>LOOKUP(E60, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>30</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M60" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="O60" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
+    </row>
+    <row r="61" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A61">
+        <f>LOOKUP(E61, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>69</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="O61" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+    </row>
+    <row r="62" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A62">
+        <f>LOOKUP(E62, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>67</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+    </row>
+    <row r="63" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A63">
+        <f>LOOKUP(E63, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>67</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M63" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+    </row>
+    <row r="64" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A64">
+        <f>LOOKUP(E64, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>10</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="O64" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+    </row>
+    <row r="65" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A65">
+        <f>LOOKUP(E65, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>10</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M65" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="O65" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+    </row>
+    <row r="66" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A66">
+        <f>LOOKUP(E66, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>10</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="O66" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+    </row>
+    <row r="67" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A67">
+        <f>LOOKUP(E67, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>10</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="M67" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="O67" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+    </row>
+    <row r="68" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A68">
+        <f>LOOKUP(E68, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>10</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="O68" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+    </row>
+    <row r="69" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A69">
+        <f>LOOKUP(E69, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>15</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="O69" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+    </row>
+    <row r="70" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A70">
+        <f>LOOKUP(E70, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>78</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+    </row>
+    <row r="71" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A71">
+        <f>LOOKUP(E71, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>54</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="O71" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+    </row>
+    <row r="72" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A72">
+        <f>LOOKUP(E72, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>2</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+    </row>
+    <row r="73" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A73">
+        <f>LOOKUP(E73, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>2</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="M73" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="O73" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+    </row>
+    <row r="74" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A74">
+        <f>LOOKUP(E74, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>2</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M74" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="O74" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
+    </row>
+    <row r="75" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A75">
+        <f>LOOKUP(E75, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>2</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="M75" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="O75" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="14"/>
+    </row>
+    <row r="76" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A76">
+        <f>LOOKUP(E76, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>58</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O76" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="14"/>
+    </row>
+    <row r="77" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A77">
+        <f>LOOKUP(E77, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>7</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O77" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
+      <c r="AD77" s="14"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
+      <c r="AH77" s="14"/>
+    </row>
+    <row r="78" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A78">
+        <f>LOOKUP(E78, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>7</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M78" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="O78" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="14"/>
+      <c r="AH78" s="14"/>
+    </row>
+    <row r="79" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A79">
+        <f>LOOKUP(E79, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>11</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="O79" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+    </row>
+    <row r="80" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A80">
+        <f>LOOKUP(E80, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>9</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="M80" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N80" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="O80" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="14"/>
+    </row>
+    <row r="81" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A81">
+        <f>LOOKUP(E81, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>18</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N81" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="O81" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="14"/>
+      <c r="AG81" s="14"/>
+      <c r="AH81" s="14"/>
+    </row>
+    <row r="82" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A82">
+        <f>LOOKUP(E82, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>18</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="O82" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+    </row>
+    <row r="83" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A83">
+        <f>LOOKUP(E83, mysql_data!B2:B75,mysql_data!A2:A75)</f>
+        <v>32</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M83" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N83" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="O83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="14"/>
+    </row>
+    <row r="84" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:34" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -8922,7 +15490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD0B769-9839-4243-9592-D5607C6EE336}">
   <dimension ref="A1:O83"/>
   <sheetViews>
@@ -12932,7 +19500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
@@ -16658,7 +23226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB953"/>
   <sheetViews>
@@ -17934,12 +24502,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBC6569-6398-134B-A372-131CED862864}">
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19082,12 +25650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611F512-BE1C-6744-810D-F56ECE5C859D}">
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19110,13 +25678,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="35">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>15</v>
@@ -19124,13 +25692,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="35">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>23</v>
@@ -19138,13 +25706,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="35">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>23</v>
@@ -19152,13 +25720,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>34</v>
@@ -19166,13 +25734,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="35">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
@@ -19180,13 +25748,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>48</v>
@@ -19194,13 +25762,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="35">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>48</v>
@@ -19208,13 +25776,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="35">
-        <v>44</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>454</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>454</v>
+        <v>254</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>59</v>
@@ -19222,13 +25790,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="35">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>67</v>
@@ -19236,13 +25804,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="35">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>459</v>
+        <v>363</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>74</v>
@@ -19250,13 +25818,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="35">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>82</v>
@@ -19264,13 +25832,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="35">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>301</v>
+        <v>417</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>89</v>
@@ -19278,13 +25846,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="35">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>93</v>
@@ -19292,13 +25860,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="35">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>93</v>
@@ -19306,13 +25874,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="35">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>93</v>
@@ -19320,13 +25888,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="35">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>67</v>
+        <v>470</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>67</v>
+        <v>470</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>103</v>
@@ -19334,13 +25902,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="35">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>111</v>
@@ -19348,13 +25916,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="35">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>116</v>
@@ -19362,13 +25930,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="35">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>116</v>
@@ -19376,13 +25944,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>458</v>
+        <v>48</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>458</v>
+        <v>48</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>127</v>
@@ -19390,13 +25958,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="35">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>378</v>
+        <v>215</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>133</v>
@@ -19404,13 +25972,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="35">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>140</v>
@@ -19418,13 +25986,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="35">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>471</v>
+        <v>111</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>471</v>
+        <v>111</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>145</v>
@@ -19432,13 +26000,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="35">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>153</v>
@@ -19446,13 +26014,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="35">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>158</v>
@@ -19460,13 +26028,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="35">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>164</v>
@@ -19474,13 +26042,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="35">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>170</v>
@@ -19488,13 +26056,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="35">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>170</v>
@@ -19502,13 +26070,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="35">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>282</v>
+        <v>468</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>176</v>
@@ -19516,13 +26084,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="35">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>184</v>
@@ -19530,13 +26098,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="35">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>184</v>
@@ -19544,13 +26112,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="35">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>193</v>
@@ -19558,13 +26126,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="35">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>199</v>
@@ -19572,13 +26140,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="35">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>206</v>
@@ -19586,13 +26154,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="35">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>472</v>
+        <v>67</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>473</v>
+        <v>67</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>206</v>
@@ -19600,13 +26168,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="35">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>262</v>
+        <v>473</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>215</v>
@@ -19614,13 +26182,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="35">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>215</v>
@@ -19628,13 +26196,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="35">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>140</v>
+        <v>454</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>140</v>
+        <v>454</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>225</v>
@@ -19642,13 +26210,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="35">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>230</v>
@@ -19656,13 +26224,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="35">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>238</v>
@@ -19670,13 +26238,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="35">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>246</v>
@@ -19684,13 +26252,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="35">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>255</v>
@@ -19698,13 +26266,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="35">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>263</v>
@@ -19712,13 +26280,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="35">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>271</v>
@@ -19726,13 +26294,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="35">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>467</v>
+        <v>59</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>271</v>
@@ -19740,13 +26308,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="35">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>282</v>
@@ -19754,13 +26322,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="35">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>452</v>
+        <v>140</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>452</v>
+        <v>140</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>282</v>
@@ -19768,13 +26336,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="35">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>282</v>
@@ -19782,13 +26350,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="35">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>282</v>
@@ -19796,13 +26364,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="35">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>459</v>
+        <v>238</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>282</v>
@@ -19810,13 +26378,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="35">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>158</v>
+        <v>463</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>158</v>
+        <v>463</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>282</v>
@@ -19824,13 +26392,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="35">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>301</v>
@@ -19838,13 +26406,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="35">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>309</v>
@@ -19852,13 +26420,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="35">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>309</v>
@@ -19866,13 +26434,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="35">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>318</v>
@@ -19880,13 +26448,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="35">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>465</v>
+        <v>206</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>318</v>
@@ -19894,13 +26462,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="35">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>326</v>
@@ -19908,13 +26476,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="35">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>326</v>
@@ -19922,13 +26490,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="35">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>326</v>
@@ -19936,13 +26504,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="35">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>339</v>
@@ -19950,13 +26518,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="35">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>338</v>
@@ -19964,13 +26532,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="35">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>417</v>
+        <v>158</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>416</v>
+        <v>158</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>338</v>
@@ -19992,13 +26560,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="35">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>350</v>
@@ -20006,13 +26574,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="35">
-        <v>13</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>255</v>
+        <v>71</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>350</v>
@@ -20020,13 +26588,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="35">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>350</v>
@@ -20034,13 +26602,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="35">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>206</v>
+        <v>460</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>206</v>
+        <v>459</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>350</v>
@@ -20048,13 +26616,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="35">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>364</v>
@@ -20062,13 +26630,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="35">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>371</v>
@@ -20076,13 +26644,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="35">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>379</v>
@@ -20090,13 +26658,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="35">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>467</v>
+        <v>230</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>381</v>
@@ -20104,13 +26672,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="35">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>467</v>
+        <v>371</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>381</v>
@@ -20118,13 +26686,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="35">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>462</v>
+        <v>193</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>462</v>
+        <v>193</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>381</v>
@@ -20132,13 +26700,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="35">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>381</v>
@@ -20186,13 +26754,13 @@
     </row>
   </sheetData>
   <sortState ref="A2:C75">
-    <sortCondition ref="B2:B75"/>
+    <sortCondition ref="A2:A75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22344507-858C-B642-9E39-4B17EED5F596}">
   <dimension ref="A1:H76"/>
   <sheetViews>
@@ -21951,7 +28519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C4D69-3CF9-4F45-83C9-8F9FFD7350CA}">
   <dimension ref="A1:AE83"/>
   <sheetViews>
